--- a/biology/Écologie/Claude_Villeneuve/Claude_Villeneuve.xlsx
+++ b/biology/Écologie/Claude_Villeneuve/Claude_Villeneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Villeneuve, né en novembre 1954 à Chicoutimi (Saguenay) et mort le 19 mai 2024 à Saguenay, est un biologiste et professeur québécois.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Villeneuve a été directeur de l'Institut Européen pour le Conseil en Environnement de Strasbourg en France, de 1993 à 1994. Il a aussi été rédacteur en chef de la revue ÉCODÉCISION de 1994 à 1997.
 Il enseigne dans différentes institutions québécoises au cours de sa carrière. Il débute comme professeur au Cégep de Saint-Félicien. De 2001 à son décès, il est professeur au département des sciences fondamentales de l’Université du Québec à Chicoutimi. À partir de 2003, il dirige la Chaire en Éco-Conseil de cette même université, incluant à partir de 2018 l'infrastructure de recherche Carbone Boréal.
-Claude Villeneuve meurt à sa résidence de Laterrière, un secteur de la ville de Saguenay, le 19 mai 2024[1],[2],[3].
+Claude Villeneuve meurt à sa résidence de Laterrière, un secteur de la ville de Saguenay, le 19 mai 2024.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1983 - Des animaux malades de l'homme ?
 1990 - Vers un réchauffement global ? (avec Léon Rodier)
@@ -554,7 +570,7 @@
 2001 - Vivre les changements climatiques, l’effet de serre expliqué (avec François Richard)
 2005 - Vivre les changements climatiques, quoi de neuf?
 2007 - Vivre les changements climatiques : Réagir pour l’avenir (avec François Richard)
-2013 - Est-il trop tard? Le point sur les changements climatiques[4]</t>
+2013 - Est-il trop tard? Le point sur les changements climatiques</t>
         </is>
       </c>
     </row>
@@ -582,14 +598,16 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2001 - Scientifique de l'année (Société Radio-Canada)
 2002 - Membre du cercle des Phénix en environnement
 2002 - Prix d'intérêt général du Salon du livre du Saguenay-Lac-Saint-Jean pour Vivre les changements climatiques
 2003 - Prix Georges-Préfontaine de l'Association des biologistes du Québec
 2006 - Prix argent des Prix canadiens de l'environnement dans la section changements climatiques
-2022 - Prix Acfas Pierre-Dansereau[5]</t>
+2022 - Prix Acfas Pierre-Dansereau</t>
         </is>
       </c>
     </row>
